--- a/panamá/agencias_de_marketing_Panamá_Santiago.xlsx
+++ b/panamá/agencias_de_marketing_Panamá_Santiago.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>Nombre</t>
   </si>
@@ -25,241 +25,307 @@
     <t>Agencia Web Panamá</t>
   </si>
   <si>
-    <t>+584123091835</t>
+    <t>584123091835,</t>
   </si>
   <si>
     <t>NOCONOCIDO</t>
   </si>
   <si>
+    <t>Agencia de Marketing Panamá - A2creativosdigital</t>
+  </si>
+  <si>
+    <t>50760327491,</t>
+  </si>
+  <si>
+    <t>https://a2creativosdigital.com/</t>
+  </si>
+  <si>
+    <t>MC CREATIVE</t>
+  </si>
+  <si>
+    <t>50765649813,</t>
+  </si>
+  <si>
+    <t>DigitalWeb Panama - Agencia de Marketing Digital</t>
+  </si>
+  <si>
+    <t>5073968083,</t>
+  </si>
+  <si>
+    <t>https://digitalwebpanama.com/</t>
+  </si>
+  <si>
+    <t>Veraguas Publicidad</t>
+  </si>
+  <si>
+    <t>50765353984,</t>
+  </si>
+  <si>
+    <t>DGP Publicidad</t>
+  </si>
+  <si>
+    <t>5079331700,</t>
+  </si>
+  <si>
+    <t>Perfiles Publicitarios y Neon</t>
+  </si>
+  <si>
+    <t>5079983364,</t>
+  </si>
+  <si>
+    <t>Chili Digital Marketing Agency</t>
+  </si>
+  <si>
+    <t>5078339655,</t>
+  </si>
+  <si>
+    <t>https://chili.pa/</t>
+  </si>
+  <si>
+    <t>Taimir Community</t>
+  </si>
+  <si>
+    <t>50768993066,</t>
+  </si>
+  <si>
     <t>PANTALLA DIGITAL SCREEN SANTIAGO VERAGUAS</t>
   </si>
   <si>
-    <t>Veraguas Publicidad</t>
-  </si>
-  <si>
-    <t>+507 6535-3984</t>
-  </si>
-  <si>
-    <t>MAXSON: Publicidad-Tecnología-Arquitectura</t>
-  </si>
-  <si>
-    <t>+507 998-4746</t>
-  </si>
-  <si>
-    <t>http://www.maxsonpanama.com/</t>
-  </si>
-  <si>
-    <t>DGP Publicidad</t>
-  </si>
-  <si>
-    <t>+507 933-1700</t>
-  </si>
-  <si>
-    <t>MC CREATIVE</t>
-  </si>
-  <si>
-    <t>+507 6564-9813</t>
+    <t>Wookie Agency</t>
+  </si>
+  <si>
+    <t>50766776586,</t>
+  </si>
+  <si>
+    <t>http://wookieagency.com/</t>
+  </si>
+  <si>
+    <t>Agencia de Marketing Digital en Panamá JSeliTodoesposible</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jose-ortega-643666215/</t>
+  </si>
+  <si>
+    <t>Activaciones y Mercadeo</t>
+  </si>
+  <si>
+    <t>50766151372,</t>
+  </si>
+  <si>
+    <t>http://www.activacionesymercadeo.com/</t>
+  </si>
+  <si>
+    <t>Infoguia</t>
+  </si>
+  <si>
+    <t>04122081941,</t>
+  </si>
+  <si>
+    <t>https://infoguia.com/</t>
+  </si>
+  <si>
+    <t>Veraguas Live</t>
+  </si>
+  <si>
+    <t>50766304459,</t>
+  </si>
+  <si>
+    <t>Agencia Marketing Digital Panama | Marketing de Marcas</t>
+  </si>
+  <si>
+    <t>50768130661,</t>
+  </si>
+  <si>
+    <t>https://marketingdemarcas.com/</t>
+  </si>
+  <si>
+    <t>anl digital media</t>
+  </si>
+  <si>
+    <t>50767104256,</t>
   </si>
   <si>
     <t>Servicios Graficos Digitales</t>
   </si>
   <si>
-    <t>+507 939-3311</t>
-  </si>
-  <si>
-    <t>JM Diseño Grafico</t>
-  </si>
-  <si>
-    <t>+507 6832-9520</t>
-  </si>
-  <si>
-    <t>https://www.behance.net/j0492fd73</t>
-  </si>
-  <si>
-    <t>anl digital media</t>
-  </si>
-  <si>
-    <t>+507 6710-4256</t>
+    <t>5079393311,</t>
+  </si>
+  <si>
+    <t>Ecom &amp; Digital Jobs</t>
+  </si>
+  <si>
+    <t>50769861653,</t>
+  </si>
+  <si>
+    <t>Agencia de marketing digital en Panamá - Símbolo Agencia Digital</t>
+  </si>
+  <si>
+    <t>50762700001,</t>
+  </si>
+  <si>
+    <t>https://www.simbolointeractivo.com/marketing-digital-en-panama/</t>
+  </si>
+  <si>
+    <t>YesyLia Store_MarkentingDigital</t>
+  </si>
+  <si>
+    <t>50764790202,</t>
+  </si>
+  <si>
+    <t>Agencia SEO &amp; Marketing Digital (Tronchatoro)</t>
+  </si>
+  <si>
+    <t>50765861676,</t>
+  </si>
+  <si>
+    <t>https://www.tronchatoro.com/agencia-seo-panama.html</t>
+  </si>
+  <si>
+    <t>GX Live Marketing</t>
+  </si>
+  <si>
+    <t>5072756342,</t>
+  </si>
+  <si>
+    <t>https://gxlivemarketing.com/</t>
+  </si>
+  <si>
+    <t>Viralsolutionss Agencia de Marketing Digital</t>
+  </si>
+  <si>
+    <t>5072756323,</t>
+  </si>
+  <si>
+    <t>https://viralsolutionss.com/</t>
+  </si>
+  <si>
+    <t>Sitios Web Panamá - Agencia de Marketing Digital</t>
+  </si>
+  <si>
+    <t>50764220243,</t>
+  </si>
+  <si>
+    <t>https://sitioswebpanama.com/</t>
+  </si>
+  <si>
+    <t>LatinOL</t>
+  </si>
+  <si>
+    <t>5073957373,</t>
+  </si>
+  <si>
+    <t>http://www.latinol.com/</t>
+  </si>
+  <si>
+    <t>Agencia BOOZ</t>
+  </si>
+  <si>
+    <t>5079543512,</t>
+  </si>
+  <si>
+    <t>Bizketing Panamá S.A.</t>
+  </si>
+  <si>
+    <t>5078510404,</t>
+  </si>
+  <si>
+    <t>http://www.bizketingpanama.com/</t>
   </si>
   <si>
     <t>MG SERVICES &amp; DESIGNS</t>
   </si>
   <si>
-    <t>+507 6979-8725</t>
-  </si>
-  <si>
-    <t>Veraguas Live</t>
-  </si>
-  <si>
-    <t>+507 6630-4459</t>
-  </si>
-  <si>
-    <t>Agencia SEO &amp; Marketing Panamá (Tronchatoro)</t>
-  </si>
-  <si>
-    <t>+507 6586-1676</t>
-  </si>
-  <si>
-    <t>https://www.tronchatoro.com/agencia-seo-panama.html</t>
-  </si>
-  <si>
-    <t>Agencia de Publicidad | Team Solutionss</t>
-  </si>
-  <si>
-    <t>+507 275-6323</t>
-  </si>
-  <si>
-    <t>https://teamsolutionss.com/</t>
-  </si>
-  <si>
-    <t>DigitalWeb Panama - Agencia de Marketing Digital</t>
-  </si>
-  <si>
-    <t>+507 396-8083</t>
-  </si>
-  <si>
-    <t>https://digitalwebpanama.com/</t>
-  </si>
-  <si>
-    <t>GX Live Marketing</t>
-  </si>
-  <si>
-    <t>+507 275-6342</t>
-  </si>
-  <si>
-    <t>https://gxlivemarketing.com/</t>
+    <t>50769798725,</t>
+  </si>
+  <si>
+    <t>Nomad Digital Labs</t>
+  </si>
+  <si>
+    <t>50762155632,</t>
+  </si>
+  <si>
+    <t>mysuperevent</t>
+  </si>
+  <si>
+    <t>Mercadeo Panamá</t>
+  </si>
+  <si>
+    <t>50766170197,</t>
+  </si>
+  <si>
+    <t>http://mercadeopanama.com/</t>
+  </si>
+  <si>
+    <t>Magneto Visual Lab</t>
+  </si>
+  <si>
+    <t>Carlos Aguirre Network</t>
+  </si>
+  <si>
+    <t>50765014376,</t>
+  </si>
+  <si>
+    <t>Agencia Emblue Group Panamá</t>
+  </si>
+  <si>
+    <t>50760475951,</t>
+  </si>
+  <si>
+    <t>https://embluegroup.com.pa/</t>
+  </si>
+  <si>
+    <t>Ross Digital</t>
+  </si>
+  <si>
+    <t>50761517829,</t>
+  </si>
+  <si>
+    <t>Webew | Desarrollo web</t>
+  </si>
+  <si>
+    <t>50764360430,</t>
+  </si>
+  <si>
+    <t>https://webew.top/</t>
+  </si>
+  <si>
+    <t>Retrato Enlinea S.A - Marketing digital</t>
+  </si>
+  <si>
+    <t>50768507878,</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/retratoenlinea/</t>
+  </si>
+  <si>
+    <t>Pymetique | Agencia de Comunicación Digital</t>
+  </si>
+  <si>
+    <t>50766555326,</t>
+  </si>
+  <si>
+    <t>https://pymetique.com/</t>
   </si>
   <si>
     <t>Marketing Digital Efectivo Panamá</t>
   </si>
   <si>
-    <t>+507 6628-1579</t>
-  </si>
-  <si>
-    <t>Viralsolutionss Agencia de Marketing Digital</t>
-  </si>
-  <si>
-    <t>https://viralsolutionss.com/</t>
-  </si>
-  <si>
-    <t>Sitios Web Panamá - Agencia de Marketing Digital</t>
-  </si>
-  <si>
-    <t>+507 6422-0243</t>
-  </si>
-  <si>
-    <t>https://sitioswebpanama.com/</t>
-  </si>
-  <si>
-    <t>Agencia de Marketing MORDIDA DIGITAL</t>
-  </si>
-  <si>
-    <t>+507 6266-2203</t>
-  </si>
-  <si>
-    <t>Agencia de Marketing Digital</t>
-  </si>
-  <si>
-    <t>+507 360-2019</t>
-  </si>
-  <si>
-    <t>Elemento Marketing</t>
-  </si>
-  <si>
-    <t>+507 6446-4545</t>
-  </si>
-  <si>
-    <t>https://www.elementomarketing.com/</t>
-  </si>
-  <si>
-    <t>Chili Digital Marketing Agency</t>
-  </si>
-  <si>
-    <t>+507 833-9655</t>
-  </si>
-  <si>
-    <t>https://chili.pa/</t>
-  </si>
-  <si>
-    <t>Agencia de Marketing Panamá - A2creativosdigital</t>
-  </si>
-  <si>
-    <t>+507 6032-7491</t>
-  </si>
-  <si>
-    <t>https://a2creativosdigital.com/</t>
-  </si>
-  <si>
-    <t>Pymetique | Agencia de Comunicación Digital</t>
-  </si>
-  <si>
-    <t>+507 6655-5326</t>
-  </si>
-  <si>
-    <t>https://pymetique.com/</t>
-  </si>
-  <si>
-    <t>Grupo Herbug - Empresa de Publicidad e Impresiones en Panamá</t>
-  </si>
-  <si>
-    <t>+507 392-3341</t>
-  </si>
-  <si>
-    <t>https://www.herbug.com/</t>
-  </si>
-  <si>
-    <t>Carlos Aguirre Network</t>
-  </si>
-  <si>
-    <t>+507 6501-4376</t>
-  </si>
-  <si>
-    <t>https://carlos-aguirre-network.negocio.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>Dos Astronautas</t>
-  </si>
-  <si>
-    <t>+507 6829-0775</t>
-  </si>
-  <si>
-    <t>Ecom &amp; Digital Jobs</t>
-  </si>
-  <si>
-    <t>+507 6986-1653</t>
-  </si>
-  <si>
-    <t>Activaciones y Mercadeo</t>
-  </si>
-  <si>
-    <t>+507 6615-1372</t>
-  </si>
-  <si>
-    <t>http://www.activacionesymercadeo.com/</t>
-  </si>
-  <si>
-    <t>Agencia Emblue Group Panamá</t>
-  </si>
-  <si>
-    <t>+507 6047-5951</t>
-  </si>
-  <si>
-    <t>https://embluegroup.com/</t>
-  </si>
-  <si>
-    <t>The Martketing : Digital Marketing &amp; Consumer Experience Agency</t>
-  </si>
-  <si>
-    <t>+507 6948-7744</t>
-  </si>
-  <si>
-    <t>http://www.themartketing.com/</t>
-  </si>
-  <si>
-    <t>Perfiles Publicitarios y Neon</t>
-  </si>
-  <si>
-    <t>+507 998-3364</t>
+    <t>50766281579,</t>
+  </si>
+  <si>
+    <t>Agencia Marketing Eficiente Chiriqui</t>
+  </si>
+  <si>
+    <t>50765663561,</t>
+  </si>
+  <si>
+    <t>M2Design - Diseño Web Panamá</t>
+  </si>
+  <si>
+    <t>5079330677,</t>
+  </si>
+  <si>
+    <t>https://www.m2design.com.pa/</t>
   </si>
 </sst>
 </file>
@@ -636,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C50"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,18 +732,18 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -685,21 +751,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -707,10 +773,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -718,10 +784,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -729,21 +795,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -751,10 +817,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -762,57 +828,57 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,29 +889,29 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,18 +933,18 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,101 +971,288 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>81</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>82</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
